--- a/emart-projects/TraceabilityMatrix.xlsx
+++ b/emart-projects/TraceabilityMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LiuJinGang\full stack\git\trytrytry01\emart-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349728C1-04E8-4B0A-8658-2FB72AD3B909}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95BC827-C11E-409A-BDC3-1222AAEB6C9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Mapping" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
   <si>
     <t>Feature Name</t>
   </si>
@@ -245,6 +245,10 @@
   </si>
   <si>
     <t>zuul-gateway</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -343,6 +347,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>607314</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>138486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6835D3A4-4E62-43CD-ABD9-128442AE6FE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="825500"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -668,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1042,14 +1095,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1070,6 +1123,9 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
       <c r="C2" t="s">
         <v>55</v>
       </c>
@@ -1081,6 +1137,9 @@
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
@@ -1092,6 +1151,9 @@
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
       <c r="C4" t="s">
         <v>55</v>
       </c>
@@ -1141,6 +1203,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1148,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E10D000-1D31-4671-AC08-B7DE38EBCFE3}">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1167,5 +1230,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/emart-projects/TraceabilityMatrix.xlsx
+++ b/emart-projects/TraceabilityMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LiuJinGang\full stack\git\trytrytry01\emart-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95BC827-C11E-409A-BDC3-1222AAEB6C9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F737395-4E2C-43DE-AF05-A0C6E4E1CF2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Mapping" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
   <si>
     <t>Feature Name</t>
   </si>
@@ -721,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1095,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1123,8 +1123,8 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>59</v>
+      <c r="B2">
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
